--- a/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13724</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8629</v>
+        <v>8446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20661</v>
+        <v>19807</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03382051985506579</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02126533484679744</v>
+        <v>0.020812833176513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05091465287923808</v>
+        <v>0.0488118210708136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>7348</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4206</v>
+        <v>4195</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12374</v>
+        <v>12479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01674861858478789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009586690629944251</v>
+        <v>0.009561500213424097</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02820368137974321</v>
+        <v>0.02844244776986991</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -783,19 +783,19 @@
         <v>21072</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14596</v>
+        <v>14848</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29493</v>
+        <v>28569</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.024951611963705</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0172826382604537</v>
+        <v>0.01758143789854091</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03492227741671118</v>
+        <v>0.03382805374092262</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9913</v>
+        <v>9342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22214</v>
+        <v>21763</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03656633618757765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02442838496253775</v>
+        <v>0.02302099027357338</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0547420727318707</v>
+        <v>0.05362990444847245</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -833,19 +833,19 @@
         <v>24861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18301</v>
+        <v>18453</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32220</v>
+        <v>32697</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05666492900260846</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04171251898311704</v>
+        <v>0.04206067381011181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07343950214543257</v>
+        <v>0.07452493496695417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -854,19 +854,19 @@
         <v>39699</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30292</v>
+        <v>30438</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49947</v>
+        <v>50212</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04700762011960291</v>
+        <v>0.0470076201196029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03586821821613927</v>
+        <v>0.03604201259043199</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05914246744659175</v>
+        <v>0.05945570795995288</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>377230</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>367225</v>
+        <v>368011</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>384252</v>
+        <v>384449</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9296131439573567</v>
+        <v>0.9296131439573564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9049579756985618</v>
+        <v>0.9068951366001775</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9469196930620274</v>
+        <v>0.9474035389277523</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>768</v>
@@ -904,19 +904,19 @@
         <v>406525</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>398044</v>
+        <v>397576</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>413722</v>
+        <v>414012</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9265864524126036</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9072553945185052</v>
+        <v>0.9061886325242481</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9429896430033666</v>
+        <v>0.9436525342571529</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1290</v>
@@ -925,19 +925,19 @@
         <v>783755</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>771499</v>
+        <v>770132</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>795521</v>
+        <v>794323</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9280407679166921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9135281583378256</v>
+        <v>0.9119098374160106</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9419721215718784</v>
+        <v>0.9405536642127679</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>39564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30932</v>
+        <v>30958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49234</v>
+        <v>49476</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1288440477289188</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1007349906934858</v>
+        <v>0.1008170671366537</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1603369987402311</v>
+        <v>0.1611228202981212</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -1050,19 +1050,19 @@
         <v>86098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74884</v>
+        <v>75055</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>99438</v>
+        <v>100543</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.185570412301335</v>
+        <v>0.1855704123013349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1614011930139202</v>
+        <v>0.1617691188465287</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2143226730207768</v>
+        <v>0.2167051405129269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>232</v>
@@ -1071,19 +1071,19 @@
         <v>125662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110766</v>
+        <v>110085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>142325</v>
+        <v>141569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1629788431043644</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1436598806258507</v>
+        <v>0.1427771148321743</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1845911584081145</v>
+        <v>0.1836095891699013</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>39058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29374</v>
+        <v>30117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>50023</v>
+        <v>49881</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1271985354937289</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09565958387120364</v>
+        <v>0.09807874134039843</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1629048468170812</v>
+        <v>0.1624442591717274</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>146</v>
@@ -1121,19 +1121,19 @@
         <v>74743</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>62585</v>
+        <v>63674</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>86804</v>
+        <v>86793</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1610970408225979</v>
+        <v>0.1610970408225978</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.134892089924359</v>
+        <v>0.137239948485089</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1870921312947812</v>
+        <v>0.1870688319204331</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>202</v>
@@ -1142,19 +1142,19 @@
         <v>113802</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>98795</v>
+        <v>99280</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>130486</v>
+        <v>129974</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1475967850846617</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1281336589636946</v>
+        <v>0.1287629105878851</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1692364629124143</v>
+        <v>0.1685715780634533</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>228445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214651</v>
+        <v>215946</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240140</v>
+        <v>240029</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7439574167773523</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6990375871070451</v>
+        <v>0.7032534234435588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7820444155747461</v>
+        <v>0.7816834009693446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>570</v>
@@ -1192,19 +1192,19 @@
         <v>303122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>288021</v>
+        <v>288826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>318482</v>
+        <v>319331</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6533325468760673</v>
+        <v>0.6533325468760672</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6207843526491678</v>
+        <v>0.6225185991227826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6864385447630574</v>
+        <v>0.688268036062786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>900</v>
@@ -1213,19 +1213,19 @@
         <v>531567</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>510311</v>
+        <v>509328</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>550554</v>
+        <v>550389</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.689424371810974</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6618558410173219</v>
+        <v>0.6605807538755706</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.714050406733579</v>
+        <v>0.7138356793145284</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>53288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42577</v>
+        <v>44041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64814</v>
+        <v>65341</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07475225291311967</v>
+        <v>0.07475225291311968</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05972710265713132</v>
+        <v>0.06178013514389855</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0909210008612459</v>
+        <v>0.09166092835326066</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>177</v>
@@ -1338,19 +1338,19 @@
         <v>93446</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79898</v>
+        <v>81053</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>108474</v>
+        <v>108304</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1035186521530225</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08851065975273742</v>
+        <v>0.08978965084048256</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1201669258668391</v>
+        <v>0.1199776607524031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>267</v>
@@ -1359,19 +1359,19 @@
         <v>146734</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>131212</v>
+        <v>128943</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>167813</v>
+        <v>165820</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09082557346856845</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08121774802730923</v>
+        <v>0.07981337653896256</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1038729596627948</v>
+        <v>0.1026395088505327</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>53897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42476</v>
+        <v>43594</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67336</v>
+        <v>66164</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07560648836324214</v>
+        <v>0.07560648836324216</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0595853696009632</v>
+        <v>0.06115350987375477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09445917082842889</v>
+        <v>0.09281543683043403</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>191</v>
@@ -1409,19 +1409,19 @@
         <v>99604</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85800</v>
+        <v>86354</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114040</v>
+        <v>115123</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1103403322117259</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09504791581232357</v>
+        <v>0.09566199743244451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1263321656825289</v>
+        <v>0.1275320928570046</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>271</v>
@@ -1430,19 +1430,19 @@
         <v>153501</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136337</v>
+        <v>135901</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171817</v>
+        <v>172926</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09501413829688979</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08439016884142632</v>
+        <v>0.08412052039234805</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1063514235017334</v>
+        <v>0.1070377732312025</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>605674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>589788</v>
+        <v>588917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>621058</v>
+        <v>621026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8496412587236383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8273550622005665</v>
+        <v>0.826133790324836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8712210811608386</v>
+        <v>0.8711764682920335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1338</v>
@@ -1480,19 +1480,19 @@
         <v>709648</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>690367</v>
+        <v>690039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>726981</v>
+        <v>728618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7861410156352515</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7647815717801142</v>
+        <v>0.7644188738930342</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8053428788668252</v>
+        <v>0.8071561528651804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2190</v>
@@ -1501,19 +1501,19 @@
         <v>1315322</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1291392</v>
+        <v>1290369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1338899</v>
+        <v>1339744</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8141602882345418</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7993478831193297</v>
+        <v>0.7987146636508816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8287539827247187</v>
+        <v>0.8292769542810839</v>
       </c>
     </row>
     <row r="15">
